--- a/newdetails.xlsx
+++ b/newdetails.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -458,9 +458,65 @@
         <v>ddddsg102</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>saish</v>
+      </c>
+      <c r="B5" t="str">
+        <v>a22@</v>
+      </c>
+      <c r="C5" t="str">
+        <v>31232</v>
+      </c>
+      <c r="D5" t="str">
+        <v>adadad</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>saish2</v>
+      </c>
+      <c r="B6" t="str">
+        <v>a222@</v>
+      </c>
+      <c r="C6" t="str">
+        <v>31232</v>
+      </c>
+      <c r="D6" t="str">
+        <v>adadad</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>saish2</v>
+      </c>
+      <c r="B7" t="str">
+        <v>a12222@</v>
+      </c>
+      <c r="C7" t="str">
+        <v>31232</v>
+      </c>
+      <c r="D7" t="str">
+        <v>adadad</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>saish23</v>
+      </c>
+      <c r="B8" t="str">
+        <v>s12222@</v>
+      </c>
+      <c r="C8" t="str">
+        <v>31232</v>
+      </c>
+      <c r="D8" t="str">
+        <v>adadad</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/newdetails.xlsx
+++ b/newdetails.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -514,9 +514,28 @@
         <v>adadad</v>
       </c>
     </row>
+    <row r="9">
+      <c r="B9" t="str">
+        <v>abnnore@gmail.com</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Abdu</v>
+      </c>
+      <c r="B10" t="str">
+        <v>abdu@gmail.com</v>
+      </c>
+      <c r="C10" t="str">
+        <v>91-8790000000</v>
+      </c>
+      <c r="D10" t="str">
+        <v xml:space="preserve"> Mangoor</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/newdetails.xlsx
+++ b/newdetails.xlsx
@@ -1,41 +1,113 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\contractzy\node_api\employeedetails\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBB9A12-05BD-4FEA-ABF0-FC6F31F6FFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="eDetails" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>dd@</t>
+  </si>
+  <si>
+    <t>asasasa</t>
+  </si>
+  <si>
+    <t>aa101</t>
+  </si>
+  <si>
+    <t>dd2@</t>
+  </si>
+  <si>
+    <t>dd102</t>
+  </si>
+  <si>
+    <t>dd3@</t>
+  </si>
+  <si>
+    <t>ddddsg102</t>
+  </si>
+  <si>
+    <t>saish</t>
+  </si>
+  <si>
+    <t>a22@</t>
+  </si>
+  <si>
+    <t>31232</t>
+  </si>
+  <si>
+    <t>adadad</t>
+  </si>
+  <si>
+    <t>saish2</t>
+  </si>
+  <si>
+    <t>a222@</t>
+  </si>
+  <si>
+    <t>a12222@</t>
+  </si>
+  <si>
+    <t>saish23</t>
+  </si>
+  <si>
+    <t>s12222@</t>
+  </si>
+  <si>
+    <t>abnnore@gmail.com</t>
+  </si>
+  <si>
+    <t>Abdu</t>
+  </si>
+  <si>
+    <t>abdu@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mangoor</t>
+  </si>
+  <si>
+    <t>aass</t>
+  </si>
+  <si>
+    <t>wwww</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +137,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,146 +476,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>email</v>
-      </c>
-      <c r="C1" t="str">
-        <v>phone</v>
-      </c>
-      <c r="D1" t="str">
-        <v>address</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>aa</v>
-      </c>
-      <c r="B2" t="str">
-        <v>dd@</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2">
         <v>121212</v>
       </c>
-      <c r="D2" t="str">
-        <v>asasasa</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>aa101</v>
-      </c>
-      <c r="B3" t="str">
-        <v>dd2@</v>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3">
         <v>121212</v>
       </c>
-      <c r="D3" t="str">
-        <v>asasasa</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>dd102</v>
-      </c>
-      <c r="B4" t="str">
-        <v>dd3@</v>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4">
         <v>212</v>
       </c>
-      <c r="D4" t="str">
-        <v>ddddsg102</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>saish</v>
-      </c>
-      <c r="B5" t="str">
-        <v>a22@</v>
-      </c>
-      <c r="C5" t="str">
-        <v>31232</v>
-      </c>
-      <c r="D5" t="str">
-        <v>adadad</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>saish2</v>
-      </c>
-      <c r="B6" t="str">
-        <v>a222@</v>
-      </c>
-      <c r="C6" t="str">
-        <v>31232</v>
-      </c>
-      <c r="D6" t="str">
-        <v>adadad</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>saish2</v>
-      </c>
-      <c r="B7" t="str">
-        <v>a12222@</v>
-      </c>
-      <c r="C7" t="str">
-        <v>31232</v>
-      </c>
-      <c r="D7" t="str">
-        <v>adadad</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>saish23</v>
-      </c>
-      <c r="B8" t="str">
-        <v>s12222@</v>
-      </c>
-      <c r="C8" t="str">
-        <v>31232</v>
-      </c>
-      <c r="D8" t="str">
-        <v>adadad</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="str">
-        <v>abnnore@gmail.com</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Abdu</v>
-      </c>
-      <c r="B10" t="str">
-        <v>abdu@gmail.com</v>
-      </c>
-      <c r="C10" t="str">
-        <v>91-8790000000</v>
-      </c>
-      <c r="D10" t="str">
-        <v xml:space="preserve"> Mangoor</v>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>1545</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>5454</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D10"/>
+    <ignoredError sqref="A1:D8 A10:B10 B9 D10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>